--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4247FD-4F4C-4D88-990F-3FD00F12A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3649A2-4E3D-4F02-AAF7-02A620E31157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="3730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="3747">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11215,6 +11215,57 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan, Tả Phù, Hữu Bật đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Thiên Riêu đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hồng Loan, Đào Hoa, Hóa Kỵ đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hồng Loan, Đào Hoa, Hoa Cái đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Thiên Mã, Long Trì đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Phượng Các, Long Trì đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Hồng Loan đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Phục Binh đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thiên Riêu đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hồng Loan, Đào Hoa, Hóa Kỵ, Đà La đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Địa Kiếp, Kiếp Sát đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Thất Sát, Thiên Riêu, Hỏa Tinh, Linh Tinh, Đà La đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Lang, Đà La đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Tướng, Đào Hoa, Hồng Loan đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hỏa Tinh, Linh Tinh đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tiểu Hao, Đại Hao đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Ân Quang, Thiên Quý đồng cung tại Phu Thê</t>
   </si>
 </sst>
 </file>
@@ -11753,10 +11804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3812"/>
+  <dimension ref="A1:B3830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1658" workbookViewId="0">
-      <selection activeCell="P1668" sqref="P1668"/>
+    <sheetView tabSelected="1" topLeftCell="A3800" workbookViewId="0">
+      <selection activeCell="B3830" sqref="B3830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42250,6 +42301,142 @@
       </c>
       <c r="B3812" t="s">
         <v>3608</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3746</v>
       </c>
     </row>
   </sheetData>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3649A2-4E3D-4F02-AAF7-02A620E31157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180C399-BAE3-44A5-A2FD-34D7C801B0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="3747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7710" uniqueCount="3774">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11266,6 +11266,87 @@
   </si>
   <si>
     <t>Ân Quang, Thiên Quý đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11307,7 +11388,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11804,10 +11895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3830"/>
+  <dimension ref="A1:B3858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3800" workbookViewId="0">
-      <selection activeCell="B3830" sqref="B3830"/>
+    <sheetView tabSelected="1" topLeftCell="A3836" workbookViewId="0">
+      <selection activeCell="I3833" sqref="I3833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42439,55 +42530,274 @@
         <v>3746</v>
       </c>
     </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3773</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="79"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3831 A3859:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3831 B3859:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3832:A3858">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180C399-BAE3-44A5-A2FD-34D7C801B0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B921E0CB-EF57-423C-BB93-C1EAD6C1ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7710" uniqueCount="3774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7780" uniqueCount="3809">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11347,6 +11347,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11388,7 +11493,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11895,10 +12010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3858"/>
+  <dimension ref="A1:B3893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3836" workbookViewId="0">
-      <selection activeCell="I3833" sqref="I3833"/>
+    <sheetView tabSelected="1" topLeftCell="A3827" workbookViewId="0">
+      <selection activeCell="F3841" sqref="F3841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42746,57 +42861,337 @@
         <v>3773</v>
       </c>
     </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3877" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3882" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3883" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3884" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3885" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3886" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3887" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3888" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3889" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3890" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3891" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3892" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3892" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3893" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>3808</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3831 A3859:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3831 A3894:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3831 B3859:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3831 B3894:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3832:A3858">
+  <conditionalFormatting sqref="A3832:A3893">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF6814-7CC3-4BA1-AE32-83C7599BA37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D13B3-093B-4B4E-A3C9-69DAFC6D8AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8442" uniqueCount="4221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8600" uniqueCount="4300">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12688,6 +12688,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Phu Thê</t>
   </si>
 </sst>
 </file>
@@ -12729,117 +12966,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13336,10 +13463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4222"/>
+  <dimension ref="A1:B4302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4162" workbookViewId="0">
-      <selection activeCell="B4162" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4216" workbookViewId="0">
+      <selection activeCell="B4224" sqref="B4224:B4302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47112,32 +47239,664 @@
         <v>4220</v>
       </c>
     </row>
+    <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4224" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4225" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4226" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4227" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4228" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4229" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4230" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4231" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4232" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4233" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4234" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4235" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4236" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4237" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4238" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4239" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4240" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4241" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4242" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4243" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4244" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4245" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4246" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4247" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4248" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4299</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="30" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="28" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="26" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3831 A3894:A4189 A6734:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3832:A3893">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D13B3-093B-4B4E-A3C9-69DAFC6D8AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB78F9-8227-4080-8129-6CF8281BFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8600" uniqueCount="4300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8810" uniqueCount="4405">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12925,6 +12925,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Quan Lộc</t>
   </si>
 </sst>
 </file>
@@ -13463,10 +13778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4302"/>
+  <dimension ref="A1:B4409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4216" workbookViewId="0">
-      <selection activeCell="B4224" sqref="B4224:B4302"/>
+    <sheetView tabSelected="1" topLeftCell="A4300" workbookViewId="0">
+      <selection activeCell="B4319" sqref="B4319:B4409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47869,6 +48184,846 @@
       </c>
       <c r="B4302" t="s">
         <v>4299</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4397" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4398" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4399" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4400" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4401" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4402" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4403" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4404" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4405" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4406" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4407" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4408" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4409" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>4404</v>
       </c>
     </row>
   </sheetData>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83800B-B977-4600-ABFB-96731DE4E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74575A3-D793-46D3-AF54-28A25C54E24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8826" uniqueCount="4419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8876" uniqueCount="4470">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13283,6 +13283,160 @@
   <si>
     <t xml:space="preserve">Lấy nhau dễ dàng, thường gặp nhau ở xa mà nên duyên vợ chồng, rất khá 
 giả và hòa thuận. </t>
+  </si>
+  <si>
+    <t>Lộc Phượng Long</t>
+  </si>
+  <si>
+    <t>Lộc Phượng Long hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Lấy được người phối ngẫu rất giàu có</t>
+  </si>
+  <si>
+    <t>Quý Anh có Hồng Loan, Hóa Lộc đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý anh cưới được người vợ có của</t>
+  </si>
+  <si>
+    <t>Phục Binh, Hóa Kỵ đồng cung tại Quan Lộc đối xung với Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng ghét nhau, tìm cách bôi nhọ lẫn nhau. </t>
+  </si>
+  <si>
+    <t>Riêu Kỵ</t>
+  </si>
+  <si>
+    <t>Riêu Kỵ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Người phối ngẫu dễ ngoại tình, loạn dâm</t>
+  </si>
+  <si>
+    <t>Kỵ Đà Hồng Đào</t>
+  </si>
+  <si>
+    <t>Kỵ Đà Hồng Đào hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Yêu nhau nhưng vẫn tìm cách lừa dối nhau. Người phối ngẫu dễ ngoại tình</t>
+  </si>
+  <si>
+    <t>Kiếp Kỵ</t>
+  </si>
+  <si>
+    <t>Kiếp Sát Kỵ</t>
+  </si>
+  <si>
+    <t>Kiếp Kỵ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kiếp Sát Kỵ hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng hại nhau. </t>
+  </si>
+  <si>
+    <t>Sát Đà Riêu Linh Hỏa</t>
+  </si>
+  <si>
+    <t>Sát Đà Riêu Linh Hỏa hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Rất nguy hiểm đến tính mạng khi lấy người này, tuyệt đối không nên cưới</t>
+  </si>
+  <si>
+    <t>Kiếp Sát Đà Riêu Linh Hỏa</t>
+  </si>
+  <si>
+    <t>Kiếp Sát Đà Riêu Linh Hỏa hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Người phối ngẫu ham chơi, ham tửu sắc, phóng đãng</t>
+  </si>
+  <si>
+    <t>Cưới được người giàu có, hiền lành, và có ngoại hình rất đẹp</t>
+  </si>
+  <si>
+    <t>Tham Sát</t>
+  </si>
+  <si>
+    <t>Tham Sát hội chiếu tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Lấy người không hòa hợp, nhiều hình khắc</t>
+  </si>
+  <si>
+    <t>Mối lái rất nhiều nhưng vẫn khó tìm hôn phối.</t>
+  </si>
+  <si>
+    <t>Nhu cầu sinh lý của người phối ngẫu rất lớn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng bất hòa hay xa cách nhau. </t>
+  </si>
+  <si>
+    <t>Cưới xin quá dễ dàng nhưng lấy về cũng tốn kém. Người phối ngẫu có thể rất thích cờ bạc, chi tiêu hoang phí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng vì ân tình mà lấy nhau. 
+</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Tướng toạ thủ tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Tướng toạ thủ tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quen nhau, thường đi lại với nhau rồi mới cưới. Anh cũng sợ vợ vì vợ hay ghen</t>
+  </si>
+  <si>
+    <t>Quen nhau, thường đi lại với nhau rồi mới cưới. Chị cũng nể chồng nhưng vẫn tìm cách để bắt nạt</t>
+  </si>
+  <si>
+    <t>Quen nhau, thường qua lại với nhau rồi mới cưới</t>
+  </si>
+  <si>
+    <t>Hay có sự xích mích trong gia đình.</t>
+  </si>
+  <si>
+    <t>Thái Tuế toạ thủ tại Quan Lộc đối xung với Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gặp nhau ở nơi xa mà nên duyên vợ chồng. </t>
+  </si>
+  <si>
+    <t>Nên chậm cưới để tránh sự bất hòa hay chia ly sau này.</t>
+  </si>
+  <si>
+    <t>Vợ chồng bất hòa.</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ toạ thủ tại Quan Lộc đối xung với Phu Thê</t>
+  </si>
+  <si>
+    <t>Người phối ngẫu có học thức, đỗ đạt</t>
+  </si>
+  <si>
+    <t>Người phối ngẫu khiến mình phải nể trọng, hoăc rất nghiêm khắc, có chức quyền.</t>
+  </si>
+  <si>
+    <t>Người phối ngẫu rất giàu có</t>
+  </si>
+  <si>
+    <t>Người phối ngẫu thường là con cả, nếu không cũng gánh vác vai trò thay con cả, người phối ngẫu có ngoại hình đẹp.</t>
+  </si>
+  <si>
+    <t>Thiên Khôi, Thiên Việt đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Vợ chồng sống với nhau hòa thuận, người phối ngẫu thông minh, có tài năng, khôn khéo, có học thức.</t>
+  </si>
+  <si>
+    <t>Văn Xương, Văn Khúc đồng cung tại Phu Thê</t>
   </si>
 </sst>
 </file>
@@ -13327,37 +13481,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13470,431 +13594,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14294,10 +13998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4416"/>
+  <dimension ref="A1:B4441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4384" workbookViewId="0">
-      <selection activeCell="E4409" sqref="E4409"/>
+    <sheetView tabSelected="1" topLeftCell="A4415" workbookViewId="0">
+      <selection activeCell="B4441" sqref="B4441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27401,12 +27105,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1638" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>113</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
@@ -27414,7 +27118,7 @@
         <v>114</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>114</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
@@ -27422,7 +27126,7 @@
         <v>115</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>115</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
@@ -27913,12 +27617,12 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1703" s="1" t="s">
         <v>1701</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>1701</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
@@ -28001,12 +27705,12 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1714" s="1" t="s">
         <v>1712</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>1712</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
@@ -28089,12 +27793,12 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1725" s="1" t="s">
         <v>1723</v>
       </c>
       <c r="B1725" s="1" t="s">
-        <v>1723</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
@@ -29238,7 +28942,7 @@
         <v>1866</v>
       </c>
       <c r="B1868" s="1" t="s">
-        <v>1866</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
@@ -30294,7 +29998,7 @@
         <v>1998</v>
       </c>
       <c r="B2000" s="1" t="s">
-        <v>1998</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
@@ -30382,7 +30086,7 @@
         <v>2009</v>
       </c>
       <c r="B2011" s="1" t="s">
-        <v>2009</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.25">
@@ -30470,7 +30174,7 @@
         <v>2020</v>
       </c>
       <c r="B2022" s="1" t="s">
-        <v>2020</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.25">
@@ -30565,8 +30269,8 @@
       <c r="A2034" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="B2034" s="1" t="s">
-        <v>2032</v>
+      <c r="B2034" t="s">
+        <v>4461</v>
       </c>
     </row>
     <row r="2035" spans="1:2" x14ac:dyDescent="0.25">
@@ -30645,8 +30349,8 @@
       <c r="A2044" s="1" t="s">
         <v>2042</v>
       </c>
-      <c r="B2044" s="1" t="s">
-        <v>2042</v>
+      <c r="B2044" t="s">
+        <v>4460</v>
       </c>
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.25">
@@ -44254,7 +43958,7 @@
         <v>3743</v>
       </c>
       <c r="B3745" s="1" t="s">
-        <v>3743</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="3746" spans="1:2" x14ac:dyDescent="0.25">
@@ -46542,7 +46246,7 @@
         <v>4029</v>
       </c>
       <c r="B4031" s="1" t="s">
-        <v>4029</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="4032" spans="1:2" x14ac:dyDescent="0.25">
@@ -47446,7 +47150,7 @@
         <v>4142</v>
       </c>
       <c r="B4144" s="1" t="s">
-        <v>4142</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4145" spans="1:2" x14ac:dyDescent="0.25">
@@ -47974,7 +47678,7 @@
         <v>4208</v>
       </c>
       <c r="B4210" s="1" t="s">
-        <v>4208</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="4211" spans="1:2" x14ac:dyDescent="0.25">
@@ -48113,12 +47817,12 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4229" s="1" t="s">
         <v>4226</v>
       </c>
       <c r="B4229" s="1" t="s">
-        <v>4226</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
@@ -48137,12 +47841,12 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4232" s="1" t="s">
         <v>4229</v>
       </c>
       <c r="B4232" s="1" t="s">
-        <v>4229</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
@@ -48153,12 +47857,12 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4234" s="1" t="s">
         <v>4231</v>
       </c>
       <c r="B4234" s="1" t="s">
-        <v>4231</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
@@ -48470,7 +48174,7 @@
         <v>4270</v>
       </c>
       <c r="B4273" s="1" t="s">
-        <v>4270</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
@@ -48497,12 +48201,12 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4277" s="1" t="s">
         <v>4274</v>
       </c>
       <c r="B4277" s="1" t="s">
-        <v>4274</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
@@ -49609,61 +49313,261 @@
         <v>4418</v>
       </c>
     </row>
+    <row r="4417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4417" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B4417" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4418" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B4418" s="1" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4419" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B4419" s="1" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4420" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4420" s="1" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4421" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B4421" s="1" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4422" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B4422" s="1" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4423" s="1" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B4423" s="1" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4424" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B4424" s="1" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4425" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B4425" s="1" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4426" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B4426" s="1" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4427" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B4427" s="1" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4428" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B4428" s="1" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4429" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B4429" s="1" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4430" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B4430" s="1" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4431" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B4431" s="1" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4432" s="1" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B4432" s="1" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4433" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B4433" s="1" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4434" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B4434" s="1" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4435" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B4435" s="1" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4436" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B4436" s="1" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4437" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B4437" s="1" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4438" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B4438" s="1" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4439" s="1" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B4439" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4440" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B4440" s="1" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4441" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B4441" s="1" t="s">
+        <v>4468</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="46" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="44" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="42" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="40" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3831 A3894:A4189 A6734:A1048576">
-    <cfRule type="duplicateValues" dxfId="39" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3832:A3893">
-    <cfRule type="duplicateValues" dxfId="36" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4412 A2044 A2035:B2043 A2034 A2045:B4411 A1:B2033 A4413:B1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3831 B3894:B4189 B6734:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+  <conditionalFormatting sqref="B1810:B2033 B2045:B3339 B2035:B2043">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3832:B3893">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B4411 A4412 A4413:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74575A3-D793-46D3-AF54-28A25C54E24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD634D2-D02B-4BAA-9332-C13296564336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8876" uniqueCount="4470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="4645">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13437,6 +13437,533 @@
   </si>
   <si>
     <t>Văn Xương, Văn Khúc đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hòa hợp trắng răng đến thuở bạc đầu. Vợ chồng đều khá giả, chung hưởng giàu sang </t>
+  </si>
+  <si>
+    <t>Tử Vi, Thiên Phủ đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Tình cảm vợ chồng bình thường</t>
+  </si>
+  <si>
+    <t>Tử Vi, Thiên Tướng đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Vợ chồng đều cứng cỏi, ương ngạnh. Mới lấy nhau thường hòa hợp nhưng về sau lại hay có chuyện xích mích. Cả hai đều khá giả.</t>
+  </si>
+  <si>
+    <t>Quý Chị có Tử Vi, Thiên Tướng đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tử Vi, Thiên Tướng đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý chị nên lấy chồng là trưởng nam, và lớn hơn tuổi mình</t>
+  </si>
+  <si>
+    <t>Quý anh nên lấy vợ là trưởng nữ</t>
+  </si>
+  <si>
+    <t>Tử Vi, Thất Sát đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mới đầu cần khó khăn, thử thách, tìm hiểu kỹ sau đó mới tiến hành hôn nhân mới tránh được hình khác, chia ly. Nên muộn lập gia đình, như thế mới được hài lòng và được hưởng phú qúy trọn đời </t>
+  </si>
+  <si>
+    <t>Tử Vi, Phá Quân đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tử Vi, Phá Quân đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Phải hình khắc hay chia ly, sống chung với nhau thì hay tranh cãi</t>
+  </si>
+  <si>
+    <t>Quý anh nên lấy vợ lớn hơn tuổi</t>
+  </si>
+  <si>
+    <t>Tử Vi, Tham Lang đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muộn lập gia đình mới mong được bách niên giai lão. Nhưng dù sao chăng nữa, trong nhà cũng hay có sự bất hòa vì một trong hai người hay ghen tuông. </t>
+  </si>
+  <si>
+    <t>Ba lần lập gia đình, người phối ngẫu hoàn cảnh khó khăn, nghèo túng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thiên Phủ đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Nên muộn lập gia đình. Vợ chồng tính cương cường, không ai chịu ai, nhưng chung sống được với nhau đến lúc bạc đầu. Gia đình sung túc và thường có danh giá.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thiên Tướng đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Vợ chồng bất hòa, nếu không tử biệt cũng sinh ly.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thất Sát đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hình khắc hay sinh ly, nên muộn lập gia đình để tránh mấy độ buồn thương. </t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Phá Quân đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng bất hòa, hay xa cách nhau, sinh kế khó khăn. </t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Tham Lang đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Vợ chồng ở với nhau hay sinh tai họa, dễ gặp nhau lại dễ bỏ nhau, nếu không cũng sớm khắc.</t>
+  </si>
+  <si>
+    <t>Chậm cưới mới được dễ dàng mọi sự và chung sống với nhau đến lúc bạc đầu</t>
+  </si>
+  <si>
+    <t>Quý Chị nên lấy chồng là con cả.</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Đồng tọa thủ cung Phu Thê ở Mão</t>
+  </si>
+  <si>
+    <t>Quý Anh nên lấy vợ là con thứ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay có sự bất hòa trong gia đình, thường phải xa cách nhau. </t>
+  </si>
+  <si>
+    <t>Dễ gặp nhau lại dễ xa nhau</t>
+  </si>
+  <si>
+    <t>Vợ chồng hay cãi lộn, nếu không tử biệt cũng sinh ly</t>
+  </si>
+  <si>
+    <t>Thiên Đồng, Thiên Lương đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sớm lập gia đình, hai người thường có họ với nhau, nếu không cũng là cung của hai gia đình đã giao du thân mật với nhau từ lâu, vợ chồng đẹp đôi và giàu sang. </t>
+  </si>
+  <si>
+    <t>Muộn lập gia đình mới tránh được chia ly.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng, Cự Môn đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Bỏ nhau, nếu không cũng phải xa cách rất lâu rồi mới đoàn tụ, vợ chồng rất thông minh.</t>
+  </si>
+  <si>
+    <t>Nên muộn lập gia đình, và lấy người bằng tuổi, hoặc gần bằng tuổi nhau, bạn được nhờ người hôn phối nhiều vì người đó có nhiều tiền tài.</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thiên Phủ đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng đôi khi có sự bất hòa, nhưng chung hưởng giàu sang đến lúc bạc đầu. </t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thiên Tướng đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc, Thiên Tướng đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Anh có Vũ Khúc, Thiên Tướng đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý anh lấy được vợ đảm đang, tài giỏi và giàu.</t>
+  </si>
+  <si>
+    <t>Quý chị lấy được chồng hiền và sang</t>
+  </si>
+  <si>
+    <t>Cả hai đều cương cường, lúc trẻ hòa thuận, về sau hay xích mích nhưng đều được hưởng phú qúy trọn vẹn</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Tham Lang đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Nên muộn lập gia đình, vợ chồng phải chênh lệch nhau nhiều tuổi. Cả hai đều tài giỏi đảm đang nhưng nếu sớm đường hôn phối tất bị hình khắc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Phá Quân đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Vợ chồng đều thao lược nhưng nếu sớm gặp nhau tất phải hình khắc và ít nhất là hai lần lập gia đình.</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thất Sát đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hình khắc nhau rất thê thẳm, vợ chồng chung sống với nhauhay sinh tai họa, để rồi xa cách hay hay một sống một chết. </t>
+  </si>
+  <si>
+    <t>Vợ chồng hợp chung sống trong cảnh phú qúy vinh hiển cho đến lúc đầu bạc răng long</t>
+  </si>
+  <si>
+    <t>Việc cưới xin hay trắc trở, có muộn đường hôn phối mới tránh được những sự chẳng lành.</t>
+  </si>
+  <si>
+    <t>Vợ chồng hay có sự bất hòa, nhưng chung sống được với nhau trong cảnh giàu sang cho đến lúc mãn chiều xế bóng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muộn lập gia đình, may ra mới tránh được sự chia ly. </t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Dương, Thái Âm đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Dương, Thái Âm đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Nên muộn đường hôn phối, nếu không tất phải xa nhau nhưng cả hai đều qúy hiển, và thường nể sợ chồng</t>
+  </si>
+  <si>
+    <t>Nên muộn đường hôn phối, nếu không tất phải xa nhau nhưng cả hai đều qúy hiển, và thường nể sợ vợ</t>
+  </si>
+  <si>
+    <t>Sớm lập gia đình, vợ chồng đều cương cường, nhưng chung sống được với nhau, cả hai đều có tài và khá giả.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nên muộn lập gia đình, cả hai không hợp tính nhau </t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ, Thiên Lương đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Cơ, Thiên Lương đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Sớm gặp người hiền lương, lấy nhau dễ dàng, làm ăn khá giả và thường là người quen thuộc trước hay có họ hàng xa với nhau, và sẽ lấy được chồng hiền và hòa hợp cho đến lúc mãn chiều xế bóng</t>
+  </si>
+  <si>
+    <t>Sớm gặp người hiền lương, lấy nhau dễ dàng, làm ăn khá giả và thường là người quen thuộc trước hay có họ hàng xa với nhau, và sẽ lấy được vợ đẹp và hòa hợp cho đến lúc mãn chiều xế bóng</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ, Cự Môn đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Cơ, Cự Môn đồng cung tại Phu Thê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quý chị lấy chồng tài giỏi, có danh chức. nhưng nên muộn đường hôn phối. Nếu không tất hay xảy ra những sự tranh chấp bất hòa, dễ đi đến chỗ chia ly. </t>
+  </si>
+  <si>
+    <t>Quý anh lấy vợ đẹp, giàu sang nhưng nên muộn đường hôn phối. Nếu không tất hay xảy ra những sự tranh chấp bất hòa, dễ đi đến chỗ chia ly.</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ, Thái Âm đồng cung tại Phu Thê ở Dần</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Cơ, Thái Âm đồng cung tại Phu Thê ở Dần</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ, Thái Âm đồng cung tại Phu Thê ở Thân</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Cơ, Thái Âm đồng cung tại Phu Thê ở Thân</t>
+  </si>
+  <si>
+    <t>Vợ chồng đều tài giỏi, khá giả, lấy nhau sớm</t>
+  </si>
+  <si>
+    <t>Thường gặp trở ngại trong việc cưới hỏi, nên muộn đường hôn phối để tránh những sự bất hòa hay xa cách nhau, cả hai đều có tài.</t>
+  </si>
+  <si>
+    <t>Thường gặp trở ngại trong việc cưới hỏi, nên muộn đường hôn phối để tránh những sự bất hòa hay xa cách nhau, cả hai đều có tài, quý anh hay sợ vợ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng khá giả, hòa thuận đến lúc đầu bạc. </t>
+  </si>
+  <si>
+    <t>Vợ chồng chung sống sung túc, nhưng hay cãi lộn</t>
+  </si>
+  <si>
+    <t>Vợ chồng đều qúy hiển, lấy nhau sớm, hòa thuận cho đến lúc đầu bạc. Người phối ngẫu giàu có, danh giá.</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Âm tọa thủ cung Phu Thê ở Dậu</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Âm tọa thủ cung Phu Thê ở Tuất</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Âm tọa thủ cung Phu Thê ở Hợi</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Âm tọa thủ cung Phu Thê ở Dậu</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Âm tọa thủ cung Phu Thê ở Tuất</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Âm tọa thủ cung Phu Thê ở Hợi</t>
+  </si>
+  <si>
+    <t>Quý anh lấy được vợ đẹp và giàu sang, thường nể vợ và đôi khi nhờ vợ mới có danh giá, của cải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quý chị lấy được chồng hiền, đáng ngôi mệnh phụ đường đường. </t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Âm tọa thủ cung Phu Thê ở Mão</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Âm tọa thủ cung Phu Thê ở Thìn</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Âm tọa thủ cung Phu Thê ở Tỵ</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Âm tọa thủ cung Phu Thê ở Mão</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Âm tọa thủ cung Phu Thê ở Thìn</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Âm tọa thủ cung Phu Thê ở Tỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng hay bất hòa, lấy phải chồng bần tiện, bất nhân. Trong lúc cưới xin, gặp nhiều trở ngại, nên muộn đường hôn phối để cố tránh những nỗi buồn khổ, chia ly. </t>
+  </si>
+  <si>
+    <t>Quý Chị có Thái Âm, Thiên Đồng đồng cung tại Phu Thê ở Tý</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thái Âm, Thiên Đồng đồng cung tại Phu Thê ở Tý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng hay bất hòa, lấy vợ lăng loàn, dâm đăng. Trong lúc cưới xin, gặp nhiều trở
+ngại, nên muộn đường hôn phối để cố tránh những nỗi buồn khổ, chia ly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng hay bất hòa, lấy vợ lăng loàn, dâm đăng, quý anh hay nể vợ và được nhờ vợ nhiều. Trong lúc cưới xin, gặp nhiều trở ngại, nên muộn đường hôn phối để cố tránh những nỗi buồn khổ, chia ly. </t>
+  </si>
+  <si>
+    <t>Vợ chồng đều tài giỏi, khá giả, lấy nhau sớm, quý anh hay nể vợ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Tham Lang tọa thủ cung Phu Thê ở Thìn</t>
+  </si>
+  <si>
+    <t>Quý Chị có Tham Lang tọa thủ cung Phu Thê ở Tuất</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tham Lang tọa thủ cung Phu Thê ở Thìn</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tham Lang tọa thủ cung Phu Thê ở Tuất</t>
+  </si>
+  <si>
+    <t>Quý anh lấy được vợ giàu, tài giỏi nhưng hay ghen. Nên lấy muộn để tránh hình khắc chia ly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quý chị lấy được chồng sang nhưng hay chơi bời. Nên muộn lập gia đình để tránh những
+hình khắc hay chia ly. </t>
+  </si>
+  <si>
+    <t>Quý Chị có Tham Lang tọa thủ cung Phu Thê ở Dần</t>
+  </si>
+  <si>
+    <t>Quý Chị có Tham Lang tọa thủ cung Phu Thê ở Thân</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tham Lang tọa thủ cung Phu Thê ở Dần</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tham Lang tọa thủ cung Phu Thê ở Thân</t>
+  </si>
+  <si>
+    <t>Quý anh lấy phải vợ hay ghen và dâm đãng.  Nên muộn đường hôn phối, vì dễ gặp nhau để rồi lại dễ xa nhau, hay hình khắc nhau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quý chị lấy phải chồng nghèo hay hoang đãng lưu manh. Nên muộn đường hôn phối, vì dễ gặp nhau để rồi lại dễ xa nhau, hay hình khắc nhau. </t>
+  </si>
+  <si>
+    <t>Quý Chị có Tham Lang tọa thủ cung Phu Thê ở Tý</t>
+  </si>
+  <si>
+    <t>Quý Chị có Tham Lang tọa thủ cung Phu Thê ở Ngọ</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tham Lang tọa thủ cung Phu Thê ở Tý</t>
+  </si>
+  <si>
+    <t>Quý Anh có Tham Lang tọa thủ cung Phu Thê ở Ngọ</t>
+  </si>
+  <si>
+    <t>Vợ chồng đẹp đôi, đều qúy hiển, nhưng hay bất hòa.</t>
+  </si>
+  <si>
+    <t>Vợ chồng bỏ nhau, hai hay ba lần lập gia đình.</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý anh có Thiên Tướng tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý anh hay nể vợ và vợ thường là con gái trưởng</t>
+  </si>
+  <si>
+    <t>Quý chị hay tìm cách lấn át chồng, và chồng thường là con cả.</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Phu Thê ở Tỵ</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Phu Thê ở Hợi</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Phu Thê ở Sửu</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Phu Thê ở Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muộn đường hôn phối đế tránh sự bất hòa hay xa cách. Quý chị lấy được chống có danh chức và giỏi dang. Nếu hai người có họ xa với nhau lại càng tốt đôi. </t>
+  </si>
+  <si>
+    <t>Quý anh có Thiên Tướng tọa thủ cung Phu Thê ở Tỵ</t>
+  </si>
+  <si>
+    <t>Quý anh có Thiên Tướng tọa thủ cung Phu Thê ở Hợi</t>
+  </si>
+  <si>
+    <t>Quý anh có Thiên Tướng tọa thủ cung Phu Thê ở Sửu</t>
+  </si>
+  <si>
+    <t>Quý anh có Thiên Tướng tọa thủ cung Phu Thê ở Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muộn đường hôn phối đế tránh sự bất hòa hay xa cách. Quý anh lấy vợ được đẹp, khôn ngoan, có tài đảm đang, con nhà khá giả. Quý anh nên hơn vợ nhiều tuổi, nếu hai người có họ xa với nhau lại càng tốt đôi. </t>
+  </si>
+  <si>
+    <t>Nhiều trở ngại trong việc cưới xin. Nếu muộn lập gia đình mới tránh được mọi hình khắc, chia ly.</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Lương tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý anh có Thiên Lương tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>Người chồng của quý chị rất phong lựu</t>
+  </si>
+  <si>
+    <t>Người vợ của quý anh rất đẹp gái</t>
+  </si>
+  <si>
+    <t>Vợ chồng lấy nhau sớm và dễ dàng, cả hai đều qúy hiển, người phối ngẫu của bạn là con cả.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng dễ gặp nhau lại dễ xa nhau. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vợ chồng hợp chung sống trong cảnh phú qúy vinh hiển cho đến lúc đầu bạc răng long. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việc cưới xin hay trắc trở, có muộn đường hôn phối mới tránh được những sự chẳng lành. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muộn đường hôn phối, quý chị lấy chồng danh giá và thường là con trai trưởng, cả hai đều cương cường. </t>
+  </si>
+  <si>
+    <t>Quý anh có Thất Sát tọa thủ cung Phu Thê ở Dần</t>
+  </si>
+  <si>
+    <t>Quý anh có Thất Sát tọa thủ cung Phu Thê ở Thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muộn đường hôn phối, quý anh lấy vợ tài giỏi nhưng hay ghen và thường là con gái trưởng, cả hai đều cương cường. </t>
+  </si>
+  <si>
+    <t>Muộn đường hôn phối, quý chị lấy chồng danh giá và thường là con trai trưởng, cả hai đều cương cường. Vợ chồng hay bất hòa, nếu sớm lập gia đình tất phải hình khắc hay chia ly.</t>
+  </si>
+  <si>
+    <t>Quý anh có Thất Sát tọa thủ cung Phu Thê ở Tý</t>
+  </si>
+  <si>
+    <t>Muộn đường hôn phối, quý anh lấy vợ tài giỏi nhưng hay ghen và thường là con gái trưởng, cả hai đều cương cường. Vợ chồng hay bất hòa, nếu sớm lập gia đình tất phải hình khắc hay chia ly.</t>
+  </si>
+  <si>
+    <t>Quý anh có Thất Sát tọa thủ cung Phu Thê ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải hai ba lần lập gia đình, rất nhiều tai ương xảy ra trong cuộc sống chung </t>
+  </si>
+  <si>
+    <t>Quý chị có Phá Quân tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý anh có Phá Quân tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>Quý anh lấy vợ hay ghen</t>
+  </si>
+  <si>
+    <t>Quý chị lấy chồng bất nghĩa</t>
+  </si>
+  <si>
+    <t>Tuy vợ chồng khá giả nhưng nên muộn đường hôn phối, nếu không trong đời tất có phen phải xa cách nhau.</t>
+  </si>
+  <si>
+    <t>Quý chị có Phá Quân tọa thủ cung Phu Thê ở Dần</t>
+  </si>
+  <si>
+    <t>Quý chị có Phá Quân tọa thủ cung Phu Thê ở Thân</t>
+  </si>
+  <si>
+    <t>Quý anh có Phá Quân tọa thủ cung Phu Thê ở Dần</t>
+  </si>
+  <si>
+    <t>Quý anh có Phá Quân tọa thủ cung Phu Thê ở Thân</t>
+  </si>
+  <si>
+    <t>Hình khắc không thế tránh được,  ấy phải chồng bất nghĩa, hoang đàng, chơi bời.</t>
+  </si>
+  <si>
+    <t>Hình khắc không thế tránh được, trai lấy phải vợ bất nhân, dâm đãng và lăng loàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nên muộn lập gia đình, nếu không tất phải hai ba lần chắp nối đường tơ. </t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa Linh sáng tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa Linh tối tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp sáng tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp tối tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh, Linh Tinh sáng tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh, Linh Tinh tối tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La sáng tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La tối tại Phu Thê</t>
+  </si>
+  <si>
+    <t>Hay bất hòa, nếu cô phải chia ly cũng chi trong một thời gian ngắn.</t>
+  </si>
+  <si>
+    <t>Cưới xin khó khăn, sự hình khắc chia ly càng dễ xảy đến, hung họa càng nhiều thêm</t>
   </si>
 </sst>
 </file>
@@ -13481,7 +14008,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13998,10 +14545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4441"/>
+  <dimension ref="A1:B4527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4415" workbookViewId="0">
-      <selection activeCell="B4441" sqref="B4441"/>
+    <sheetView tabSelected="1" topLeftCell="A4510" workbookViewId="0">
+      <selection activeCell="G4530" sqref="G4530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23054,7 +23601,7 @@
         <v>1261</v>
       </c>
       <c r="B1131" s="1" t="s">
-        <v>1261</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24713,12 +25260,12 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1339" s="1" t="s">
         <v>1450</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>1450</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1340" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -24753,12 +25300,12 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1344" s="1" t="s">
         <v>1455</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>1455</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -24793,12 +25340,12 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1349" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>1460</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1350" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -24833,12 +25380,12 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1354" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>1465</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
@@ -26374,7 +26921,7 @@
         <v>27</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>27</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
@@ -26449,12 +26996,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>37</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
@@ -27094,7 +27641,7 @@
         <v>111</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>111</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
@@ -27166,7 +27713,7 @@
         <v>120</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>120</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
@@ -27281,6 +27828,14 @@
         <v>1658</v>
       </c>
     </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1660" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B1660" s="1" t="s">
+        <v>4501</v>
+      </c>
+    </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1661" s="1" t="s">
         <v>1659</v>
@@ -33742,7 +34297,7 @@
         <v>2345</v>
       </c>
       <c r="B2468" s="1" t="s">
-        <v>2345</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="2469" spans="1:2" x14ac:dyDescent="0.25">
@@ -33790,7 +34345,7 @@
         <v>2351</v>
       </c>
       <c r="B2474" s="1" t="s">
-        <v>2351</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="2475" spans="1:2" x14ac:dyDescent="0.25">
@@ -33838,7 +34393,7 @@
         <v>2357</v>
       </c>
       <c r="B2480" s="1" t="s">
-        <v>2357</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="2481" spans="1:2" x14ac:dyDescent="0.25">
@@ -33846,7 +34401,7 @@
         <v>2358</v>
       </c>
       <c r="B2481" s="1" t="s">
-        <v>2358</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="2482" spans="1:2" x14ac:dyDescent="0.25">
@@ -33873,28 +34428,28 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="2485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2485" s="1" t="s">
         <v>2362</v>
       </c>
       <c r="B2485" s="1" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2486" s="1" t="s">
         <v>2363</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2487" s="1" t="s">
         <v>2364</v>
       </c>
       <c r="B2487" s="1" t="s">
-        <v>2364</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="2488" spans="1:2" x14ac:dyDescent="0.25">
@@ -33926,15 +34481,15 @@
         <v>2368</v>
       </c>
       <c r="B2491" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2492" s="1" t="s">
         <v>2369</v>
       </c>
       <c r="B2492" s="1" t="s">
-        <v>2369</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="2493" spans="1:2" x14ac:dyDescent="0.25">
@@ -33958,7 +34513,7 @@
         <v>2372</v>
       </c>
       <c r="B2495" s="1" t="s">
-        <v>2372</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="2496" spans="1:2" x14ac:dyDescent="0.25">
@@ -33966,7 +34521,7 @@
         <v>2373</v>
       </c>
       <c r="B2496" s="1" t="s">
-        <v>2373</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="2497" spans="1:2" x14ac:dyDescent="0.25">
@@ -33974,7 +34529,7 @@
         <v>2374</v>
       </c>
       <c r="B2497" s="1" t="s">
-        <v>2374</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="2498" spans="1:2" x14ac:dyDescent="0.25">
@@ -33982,7 +34537,7 @@
         <v>2375</v>
       </c>
       <c r="B2498" s="1" t="s">
-        <v>2375</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="2499" spans="1:2" x14ac:dyDescent="0.25">
@@ -34001,28 +34556,28 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="2501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2501" s="1" t="s">
         <v>2378</v>
       </c>
       <c r="B2501" s="1" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="2502" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2502" s="1" t="s">
         <v>2379</v>
       </c>
       <c r="B2502" s="1" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2503" s="1" t="s">
         <v>2380</v>
       </c>
       <c r="B2503" s="1" t="s">
-        <v>2380</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="2504" spans="1:2" x14ac:dyDescent="0.25">
@@ -34057,12 +34612,12 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="2508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2508" s="1" t="s">
         <v>2385</v>
       </c>
       <c r="B2508" s="1" t="s">
-        <v>2385</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="2509" spans="1:2" x14ac:dyDescent="0.25">
@@ -34105,12 +34660,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="2514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2514" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2514" s="1" t="s">
         <v>2391</v>
       </c>
       <c r="B2514" s="1" t="s">
-        <v>2391</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="2515" spans="1:2" x14ac:dyDescent="0.25">
@@ -34150,7 +34705,7 @@
         <v>2396</v>
       </c>
       <c r="B2519" s="1" t="s">
-        <v>2396</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="2520" spans="1:2" x14ac:dyDescent="0.25">
@@ -34158,7 +34713,7 @@
         <v>2397</v>
       </c>
       <c r="B2520" s="1" t="s">
-        <v>2397</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="2521" spans="1:2" x14ac:dyDescent="0.25">
@@ -34166,7 +34721,7 @@
         <v>2398</v>
       </c>
       <c r="B2521" s="1" t="s">
-        <v>2398</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="2522" spans="1:2" x14ac:dyDescent="0.25">
@@ -34198,7 +34753,7 @@
         <v>2402</v>
       </c>
       <c r="B2525" s="1" t="s">
-        <v>2402</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="2526" spans="1:2" x14ac:dyDescent="0.25">
@@ -34206,7 +34761,7 @@
         <v>2403</v>
       </c>
       <c r="B2526" s="1" t="s">
-        <v>2403</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="2527" spans="1:2" x14ac:dyDescent="0.25">
@@ -34238,7 +34793,7 @@
         <v>2407</v>
       </c>
       <c r="B2530" s="1" t="s">
-        <v>2407</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="2531" spans="1:2" x14ac:dyDescent="0.25">
@@ -34286,7 +34841,7 @@
         <v>2413</v>
       </c>
       <c r="B2536" s="1" t="s">
-        <v>2413</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="2537" spans="1:2" x14ac:dyDescent="0.25">
@@ -34326,7 +34881,7 @@
         <v>2418</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>2418</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2542" spans="1:2" x14ac:dyDescent="0.25">
@@ -34342,7 +34897,7 @@
         <v>2420</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>2420</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2544" spans="1:2" x14ac:dyDescent="0.25">
@@ -34366,7 +34921,7 @@
         <v>2423</v>
       </c>
       <c r="B2546" s="1" t="s">
-        <v>2423</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2547" spans="1:2" x14ac:dyDescent="0.25">
@@ -34382,7 +34937,7 @@
         <v>2425</v>
       </c>
       <c r="B2548" s="1" t="s">
-        <v>2425</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2549" spans="1:2" x14ac:dyDescent="0.25">
@@ -34398,7 +34953,7 @@
         <v>2427</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>2427</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2551" spans="1:2" x14ac:dyDescent="0.25">
@@ -34473,12 +35028,12 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="2560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2560" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2560" s="1" t="s">
         <v>2437</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>2437</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2561" spans="1:2" x14ac:dyDescent="0.25">
@@ -34598,7 +35153,7 @@
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>2452</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
@@ -34630,7 +35185,7 @@
         <v>2456</v>
       </c>
       <c r="B2579" s="1" t="s">
-        <v>2456</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2580" spans="1:2" x14ac:dyDescent="0.25">
@@ -34638,7 +35193,7 @@
         <v>2457</v>
       </c>
       <c r="B2580" s="1" t="s">
-        <v>2457</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2581" spans="1:2" x14ac:dyDescent="0.25">
@@ -34646,7 +35201,7 @@
         <v>2458</v>
       </c>
       <c r="B2581" s="1" t="s">
-        <v>2458</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.25">
@@ -34678,7 +35233,7 @@
         <v>2462</v>
       </c>
       <c r="B2585" s="1" t="s">
-        <v>2462</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.25">
@@ -34686,7 +35241,7 @@
         <v>2463</v>
       </c>
       <c r="B2586" s="1" t="s">
-        <v>2463</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.25">
@@ -34713,12 +35268,12 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="2590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2590" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2590" s="1" t="s">
         <v>2467</v>
       </c>
       <c r="B2590" s="1" t="s">
-        <v>2467</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2591" spans="1:2" x14ac:dyDescent="0.25">
@@ -34777,12 +35332,12 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="2598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2598" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2598" s="1" t="s">
         <v>2475</v>
       </c>
       <c r="B2598" s="1" t="s">
-        <v>2475</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="2599" spans="1:2" x14ac:dyDescent="0.25">
@@ -34822,15 +35377,15 @@
         <v>2480</v>
       </c>
       <c r="B2603" s="1" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="2604" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2604" s="1" t="s">
         <v>2481</v>
       </c>
       <c r="B2604" s="1" t="s">
-        <v>2481</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="2605" spans="1:2" x14ac:dyDescent="0.25">
@@ -34870,7 +35425,7 @@
         <v>2486</v>
       </c>
       <c r="B2609" s="1" t="s">
-        <v>2486</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="2610" spans="1:2" x14ac:dyDescent="0.25">
@@ -34910,7 +35465,7 @@
         <v>2491</v>
       </c>
       <c r="B2614" s="1" t="s">
-        <v>2491</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="2615" spans="1:2" x14ac:dyDescent="0.25">
@@ -34958,7 +35513,7 @@
         <v>2497</v>
       </c>
       <c r="B2620" s="1" t="s">
-        <v>2497</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="2621" spans="1:2" x14ac:dyDescent="0.25">
@@ -34969,12 +35524,12 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="2622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2622" s="1" t="s">
         <v>2499</v>
       </c>
       <c r="B2622" s="1" t="s">
-        <v>2499</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="2623" spans="1:2" x14ac:dyDescent="0.25">
@@ -35006,7 +35561,7 @@
         <v>2503</v>
       </c>
       <c r="B2626" s="1" t="s">
-        <v>2503</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="2627" spans="1:2" x14ac:dyDescent="0.25">
@@ -35017,12 +35572,12 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="2628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2628" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2628" s="1" t="s">
         <v>2505</v>
       </c>
       <c r="B2628" s="1" t="s">
-        <v>2505</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="2629" spans="1:2" x14ac:dyDescent="0.25">
@@ -35054,7 +35609,7 @@
         <v>2509</v>
       </c>
       <c r="B2632" s="1" t="s">
-        <v>2509</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="2633" spans="1:2" x14ac:dyDescent="0.25">
@@ -38041,12 +38596,12 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="3006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3006" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3006" s="1" t="s">
         <v>2883</v>
       </c>
       <c r="B3006" s="1" t="s">
-        <v>2883</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="3007" spans="1:2" x14ac:dyDescent="0.25">
@@ -38238,7 +38793,7 @@
         <v>2907</v>
       </c>
       <c r="B3030" s="1" t="s">
-        <v>2907</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="3031" spans="1:2" x14ac:dyDescent="0.25">
@@ -38281,12 +38836,12 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="3036" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3036" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3036" s="1" t="s">
         <v>2913</v>
       </c>
       <c r="B3036" s="1" t="s">
-        <v>2913</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="3037" spans="1:2" x14ac:dyDescent="0.25">
@@ -47777,1649 +48332,1665 @@
         <v>4220</v>
       </c>
     </row>
+    <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4223" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B4223" s="1" t="s">
+        <v>4221</v>
+      </c>
+    </row>
     <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4224" s="1" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="B4224" s="1" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4225" s="1" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="B4225" s="1" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4226" s="1" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="B4226" s="1" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4227" s="1" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="B4227" s="1" t="s">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4228" s="1" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="B4228" s="1" t="s">
-        <v>4225</v>
-      </c>
-    </row>
-    <row r="4229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4229" s="1" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="B4229" s="1" t="s">
-        <v>4468</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4230" s="1" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="B4230" s="1" t="s">
-        <v>4227</v>
-      </c>
-    </row>
-    <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4231" s="1" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="B4231" s="1" t="s">
-        <v>4228</v>
-      </c>
-    </row>
-    <row r="4232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4232" s="1" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="B4232" s="1" t="s">
-        <v>4451</v>
-      </c>
-    </row>
-    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4233" s="1" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="B4233" s="1" t="s">
-        <v>4230</v>
-      </c>
-    </row>
-    <row r="4234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4234" s="1" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="B4234" s="1" t="s">
-        <v>4450</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4235" s="1" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="B4235" s="1" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4236" s="1" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="B4236" s="1" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4237" s="1" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="B4237" s="1" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4238" s="1" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="B4238" s="1" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4239" s="1" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="B4239" s="1" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4240" s="1" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="B4240" s="1" t="s">
-        <v>4237</v>
-      </c>
-    </row>
-    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4241" s="1" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="B4241" s="1" t="s">
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="4242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4242" s="1" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="B4242" s="1" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4243" s="1" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="B4243" s="1" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4244" s="1" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="B4244" s="1" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4245" s="1" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="B4245" s="1" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4246" s="1" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="B4246" s="1" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4247" s="1" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="B4247" s="1" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4248" s="1" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="B4248" s="1" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4249" s="1" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="B4249" s="1" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4250" s="1" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="B4250" s="1" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4251" s="1" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="B4251" s="1" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4252" s="1" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="B4252" s="1" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4253" s="1" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="B4253" s="1" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4254" s="1" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="B4254" s="1" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4255" s="1" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="B4255" s="1" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4256" s="1" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="B4256" s="1" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4257" s="1" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="B4257" s="1" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4258" s="1" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="B4258" s="1" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4259" s="1" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="B4259" s="1" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4260" s="1" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="B4260" s="1" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4261" s="1" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="B4261" s="1" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4262" s="1" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="B4262" s="1" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4263" s="1" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="B4263" s="1" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4264" s="1" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="B4264" s="1" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4265" s="1" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="B4265" s="1" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4266" s="1" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="B4266" s="1" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4267" s="1" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="B4267" s="1" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4268" s="1" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="B4268" s="1" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4269" s="1" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="B4269" s="1" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4270" s="1" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="B4270" s="1" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4271" s="1" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="B4271" s="1" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4272" s="1" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="B4272" s="1" t="s">
-        <v>4269</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4273" s="1" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="B4273" s="1" t="s">
-        <v>4447</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4274" s="1" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="B4274" s="1" t="s">
-        <v>4409</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4275" s="1" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="B4275" s="1" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4276" s="1" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="B4276" s="1" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4277" s="1" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="B4277" s="1" t="s">
-        <v>4466</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4278" s="1" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="B4278" s="1" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4279" s="1" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="B4279" s="1" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4280" s="1" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="B4280" s="1" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4281" s="1" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="B4281" s="1" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4282" s="1" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="B4282" s="1" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4283" s="1" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="B4283" s="1" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4284" s="1" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="B4284" s="1" t="s">
-        <v>4281</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4285" s="1" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="B4285" s="1" t="s">
-        <v>4405</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4286" s="1" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="B4286" s="1" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4287" s="1" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="B4287" s="1" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4288" s="1" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="B4288" s="1" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4289" s="1" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="B4289" s="1" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4290" s="1" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="B4290" s="1" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4291" s="1" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="B4291" s="1" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4292" s="1" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="B4292" s="1" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4293" s="1" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="B4293" s="1" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4294" s="1" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="B4294" s="1" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4295" s="1" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="B4295" s="1" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4296" s="1" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="B4296" s="1" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4297" s="1" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="B4297" s="1" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4298" s="1" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="B4298" s="1" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4299" s="1" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="B4299" s="1" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4300" s="1" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="B4300" s="1" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4301" s="1" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="B4301" s="1" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4302" s="1" t="s">
-        <v>4299</v>
+        <v>4406</v>
       </c>
       <c r="B4302" s="1" t="s">
-        <v>4299</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4303" s="1" t="s">
-        <v>4406</v>
+        <v>4300</v>
       </c>
       <c r="B4303" s="1" t="s">
-        <v>4406</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4304" s="1" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="B4304" s="1" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4305" s="1" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="B4305" s="1" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4306" s="1" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="B4306" s="1" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4307" s="1" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="B4307" s="1" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4308" s="1" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="B4308" s="1" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4309" s="1" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="B4309" s="1" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4310" s="1" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="B4310" s="1" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4311" s="1" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="B4311" s="1" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4312" s="1" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="B4312" s="1" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4313" s="1" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="B4313" s="1" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4314" s="1" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="B4314" s="1" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4315" s="1" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="B4315" s="1" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4316" s="1" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="B4316" s="1" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4317" s="1" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="B4317" s="1" t="s">
-        <v>4313</v>
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" s="1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4318" s="1" t="s">
+        <v>4315</v>
       </c>
     </row>
     <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4319" s="1" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="B4319" s="1" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4320" s="1" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="B4320" s="1" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4321" s="1" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
       <c r="B4321" s="1" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4322" s="1" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="B4322" s="1" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4323" s="1" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="B4323" s="1" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4324" s="1" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
       <c r="B4324" s="1" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4325" s="1" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="B4325" s="1" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4326" s="1" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
       <c r="B4326" s="1" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4327" s="1" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
       <c r="B4327" s="1" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4328" s="1" t="s">
-        <v>4323</v>
+        <v>4325</v>
       </c>
       <c r="B4328" s="1" t="s">
-        <v>4323</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4329" s="1" t="s">
-        <v>4324</v>
+        <v>4326</v>
       </c>
       <c r="B4329" s="1" t="s">
-        <v>4324</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4330" s="1" t="s">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="B4330" s="1" t="s">
-        <v>4325</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4331" s="1" t="s">
-        <v>4326</v>
+        <v>4328</v>
       </c>
       <c r="B4331" s="1" t="s">
-        <v>4326</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4332" s="1" t="s">
-        <v>4327</v>
+        <v>4329</v>
       </c>
       <c r="B4332" s="1" t="s">
-        <v>4327</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4333" s="1" t="s">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="B4333" s="1" t="s">
-        <v>4328</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4334" s="1" t="s">
-        <v>4329</v>
+        <v>4331</v>
       </c>
       <c r="B4334" s="1" t="s">
-        <v>4329</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4335" s="1" t="s">
-        <v>4330</v>
+        <v>4332</v>
       </c>
       <c r="B4335" s="1" t="s">
-        <v>4330</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4336" s="1" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="B4336" s="1" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4337" s="1" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="B4337" s="1" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4338" s="1" t="s">
-        <v>4333</v>
+        <v>4335</v>
       </c>
       <c r="B4338" s="1" t="s">
-        <v>4333</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4339" s="1" t="s">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="B4339" s="1" t="s">
-        <v>4334</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4340" s="1" t="s">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="B4340" s="1" t="s">
-        <v>4335</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4341" s="1" t="s">
-        <v>4336</v>
+        <v>4338</v>
       </c>
       <c r="B4341" s="1" t="s">
-        <v>4336</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4342" s="1" t="s">
-        <v>4337</v>
+        <v>4339</v>
       </c>
       <c r="B4342" s="1" t="s">
-        <v>4337</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4343" s="1" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="B4343" s="1" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4344" s="1" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
       <c r="B4344" s="1" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4345" s="1" t="s">
-        <v>4340</v>
+        <v>4342</v>
       </c>
       <c r="B4345" s="1" t="s">
-        <v>4340</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4346" s="1" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="B4346" s="1" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4347" s="1" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="B4347" s="1" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4348" s="1" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="B4348" s="1" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4349" s="1" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
       <c r="B4349" s="1" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4350" s="1" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="B4350" s="1" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4351" s="1" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="B4351" s="1" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4352" s="1" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="B4352" s="1" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4353" s="1" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="B4353" s="1" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4354" s="1" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="B4354" s="1" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4355" s="1" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
       <c r="B4355" s="1" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4356" s="1" t="s">
-        <v>4351</v>
+        <v>4353</v>
       </c>
       <c r="B4356" s="1" t="s">
-        <v>4351</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4357" s="1" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
       <c r="B4357" s="1" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4358" s="1" t="s">
-        <v>4353</v>
+        <v>4355</v>
       </c>
       <c r="B4358" s="1" t="s">
-        <v>4353</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4359" s="1" t="s">
-        <v>4354</v>
+        <v>4356</v>
       </c>
       <c r="B4359" s="1" t="s">
-        <v>4354</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4360" s="1" t="s">
-        <v>4355</v>
+        <v>4357</v>
       </c>
       <c r="B4360" s="1" t="s">
-        <v>4355</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4361" s="1" t="s">
-        <v>4356</v>
+        <v>4358</v>
       </c>
       <c r="B4361" s="1" t="s">
-        <v>4356</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4362" s="1" t="s">
-        <v>4357</v>
+        <v>4359</v>
       </c>
       <c r="B4362" s="1" t="s">
-        <v>4357</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4363" s="1" t="s">
-        <v>4358</v>
+        <v>4360</v>
       </c>
       <c r="B4363" s="1" t="s">
-        <v>4358</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4364" s="1" t="s">
-        <v>4359</v>
+        <v>4361</v>
       </c>
       <c r="B4364" s="1" t="s">
-        <v>4359</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4365" s="1" t="s">
-        <v>4360</v>
+        <v>4362</v>
       </c>
       <c r="B4365" s="1" t="s">
-        <v>4360</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4366" s="1" t="s">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="B4366" s="1" t="s">
-        <v>4361</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4367" s="1" t="s">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="B4367" s="1" t="s">
-        <v>4362</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4368" s="1" t="s">
-        <v>4363</v>
+        <v>4365</v>
       </c>
       <c r="B4368" s="1" t="s">
-        <v>4363</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4369" s="1" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="B4369" s="1" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4370" s="1" t="s">
-        <v>4365</v>
+        <v>4367</v>
       </c>
       <c r="B4370" s="1" t="s">
-        <v>4365</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4371" s="1" t="s">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="B4371" s="1" t="s">
-        <v>4366</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4372" s="1" t="s">
-        <v>4367</v>
+        <v>4369</v>
       </c>
       <c r="B4372" s="1" t="s">
-        <v>4367</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4373" s="1" t="s">
-        <v>4368</v>
+        <v>4370</v>
       </c>
       <c r="B4373" s="1" t="s">
-        <v>4368</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4374" s="1" t="s">
-        <v>4369</v>
+        <v>4371</v>
       </c>
       <c r="B4374" s="1" t="s">
-        <v>4369</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4375" s="1" t="s">
-        <v>4370</v>
+        <v>4372</v>
       </c>
       <c r="B4375" s="1" t="s">
-        <v>4370</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4376" s="1" t="s">
-        <v>4371</v>
+        <v>4373</v>
       </c>
       <c r="B4376" s="1" t="s">
-        <v>4371</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4377" s="1" t="s">
-        <v>4372</v>
+        <v>4374</v>
       </c>
       <c r="B4377" s="1" t="s">
-        <v>4372</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4378" s="1" t="s">
-        <v>4373</v>
+        <v>4375</v>
       </c>
       <c r="B4378" s="1" t="s">
-        <v>4373</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4379" s="1" t="s">
-        <v>4374</v>
+        <v>4376</v>
       </c>
       <c r="B4379" s="1" t="s">
-        <v>4374</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4380" s="1" t="s">
-        <v>4375</v>
+        <v>4377</v>
       </c>
       <c r="B4380" s="1" t="s">
-        <v>4375</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4381" s="1" t="s">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="B4381" s="1" t="s">
-        <v>4376</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4382" s="1" t="s">
-        <v>4377</v>
+        <v>4379</v>
       </c>
       <c r="B4382" s="1" t="s">
-        <v>4377</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4383" s="1" t="s">
-        <v>4378</v>
+        <v>4380</v>
       </c>
       <c r="B4383" s="1" t="s">
-        <v>4378</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4384" s="1" t="s">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="B4384" s="1" t="s">
-        <v>4379</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4385" s="1" t="s">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="B4385" s="1" t="s">
-        <v>4380</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4386" s="1" t="s">
-        <v>4381</v>
+        <v>4383</v>
       </c>
       <c r="B4386" s="1" t="s">
-        <v>4381</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4387" s="1" t="s">
-        <v>4382</v>
+        <v>4384</v>
       </c>
       <c r="B4387" s="1" t="s">
-        <v>4382</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4388" s="1" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="B4388" s="1" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4389" s="1" t="s">
-        <v>4384</v>
+        <v>4386</v>
       </c>
       <c r="B4389" s="1" t="s">
-        <v>4384</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4390" s="1" t="s">
-        <v>4385</v>
+        <v>4387</v>
       </c>
       <c r="B4390" s="1" t="s">
-        <v>4385</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4391" s="1" t="s">
-        <v>4386</v>
+        <v>4388</v>
       </c>
       <c r="B4391" s="1" t="s">
-        <v>4386</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4392" s="1" t="s">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="B4392" s="1" t="s">
-        <v>4387</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4393" s="1" t="s">
-        <v>4388</v>
+        <v>4390</v>
       </c>
       <c r="B4393" s="1" t="s">
-        <v>4388</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4394" s="1" t="s">
-        <v>4389</v>
+        <v>4391</v>
       </c>
       <c r="B4394" s="1" t="s">
-        <v>4389</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4395" s="1" t="s">
-        <v>4390</v>
+        <v>4392</v>
       </c>
       <c r="B4395" s="1" t="s">
-        <v>4390</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4396" s="1" t="s">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="B4396" s="1" t="s">
-        <v>4391</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4397" s="1" t="s">
-        <v>4392</v>
+        <v>4394</v>
       </c>
       <c r="B4397" s="1" t="s">
-        <v>4392</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4398" s="1" t="s">
-        <v>4393</v>
+        <v>4395</v>
       </c>
       <c r="B4398" s="1" t="s">
-        <v>4393</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4399" s="1" t="s">
-        <v>4394</v>
+        <v>4396</v>
       </c>
       <c r="B4399" s="1" t="s">
-        <v>4394</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4400" s="1" t="s">
-        <v>4395</v>
+        <v>4397</v>
       </c>
       <c r="B4400" s="1" t="s">
-        <v>4395</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4401" s="1" t="s">
-        <v>4396</v>
+        <v>4398</v>
       </c>
       <c r="B4401" s="1" t="s">
-        <v>4396</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4402" s="1" t="s">
-        <v>4397</v>
+        <v>4399</v>
       </c>
       <c r="B4402" s="1" t="s">
-        <v>4397</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4403" s="1" t="s">
-        <v>4398</v>
+        <v>4400</v>
       </c>
       <c r="B4403" s="1" t="s">
-        <v>4398</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4404" s="1" t="s">
-        <v>4399</v>
+        <v>4401</v>
       </c>
       <c r="B4404" s="1" t="s">
-        <v>4399</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4405" s="1" t="s">
-        <v>4400</v>
+        <v>4402</v>
       </c>
       <c r="B4405" s="1" t="s">
-        <v>4400</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4406" s="1" t="s">
-        <v>4401</v>
+        <v>4403</v>
       </c>
       <c r="B4406" s="1" t="s">
-        <v>4401</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="4407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4407" s="1" t="s">
-        <v>4402</v>
+        <v>4404</v>
       </c>
       <c r="B4407" s="1" t="s">
-        <v>4402</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="4408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4408" s="1" t="s">
-        <v>4403</v>
+        <v>4407</v>
       </c>
       <c r="B4408" s="1" t="s">
-        <v>4403</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4409" s="1" t="s">
-        <v>4404</v>
+        <v>4410</v>
       </c>
       <c r="B4409" s="1" t="s">
-        <v>4404</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="4410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4410" s="1" t="s">
-        <v>4407</v>
-      </c>
-      <c r="B4410" s="1" t="s">
-        <v>4408</v>
+        <v>4411</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>4412</v>
       </c>
     </row>
     <row r="4411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4411" s="1" t="s">
-        <v>4410</v>
+        <v>4413</v>
       </c>
       <c r="B4411" s="1" t="s">
-        <v>4410</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="4412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4412" s="1" t="s">
-        <v>4411</v>
-      </c>
-      <c r="B4412" t="s">
-        <v>4412</v>
+        <v>4415</v>
+      </c>
+      <c r="B4412" s="1" t="s">
+        <v>4414</v>
       </c>
     </row>
     <row r="4413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4413" s="1" t="s">
-        <v>4413</v>
+        <v>4416</v>
       </c>
       <c r="B4413" s="1" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="4414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4414" s="1" t="s">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="B4414" s="1" t="s">
-        <v>4414</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="4415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4415" s="1" t="s">
-        <v>4416</v>
+        <v>4419</v>
       </c>
       <c r="B4415" s="1" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="4416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4416" s="1" t="s">
-        <v>4417</v>
+        <v>4420</v>
       </c>
       <c r="B4416" s="1" t="s">
-        <v>4418</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="4417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4417" s="1" t="s">
-        <v>4419</v>
+        <v>4422</v>
       </c>
       <c r="B4417" s="1" t="s">
-        <v>4419</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="4418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4418" s="1" t="s">
-        <v>4420</v>
+        <v>4424</v>
       </c>
       <c r="B4418" s="1" t="s">
-        <v>4421</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="4419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4419" s="1" t="s">
-        <v>4422</v>
+        <v>4426</v>
       </c>
       <c r="B4419" s="1" t="s">
-        <v>4423</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="4420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4420" s="1" t="s">
-        <v>4424</v>
+        <v>4427</v>
       </c>
       <c r="B4420" s="1" t="s">
-        <v>4425</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4421" s="1" t="s">
-        <v>4426</v>
+        <v>4429</v>
       </c>
       <c r="B4421" s="1" t="s">
-        <v>4426</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="4422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4422" s="1" t="s">
-        <v>4427</v>
+        <v>4430</v>
       </c>
       <c r="B4422" s="1" t="s">
-        <v>4428</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="4423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4423" s="1" t="s">
-        <v>4429</v>
+        <v>4432</v>
       </c>
       <c r="B4423" s="1" t="s">
-        <v>4429</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="4424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4424" s="1" t="s">
-        <v>4430</v>
+        <v>4433</v>
       </c>
       <c r="B4424" s="1" t="s">
-        <v>4431</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="4425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4425" s="1" t="s">
-        <v>4432</v>
+        <v>4434</v>
       </c>
       <c r="B4425" s="1" t="s">
-        <v>4432</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4426" s="1" t="s">
-        <v>4433</v>
+        <v>4435</v>
       </c>
       <c r="B4426" s="1" t="s">
-        <v>4433</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4427" s="1" t="s">
-        <v>4434</v>
+        <v>4437</v>
       </c>
       <c r="B4427" s="1" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4428" s="1" t="s">
-        <v>4435</v>
+        <v>4438</v>
       </c>
       <c r="B4428" s="1" t="s">
-        <v>4436</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="4429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4429" s="1" t="s">
-        <v>4437</v>
+        <v>4440</v>
       </c>
       <c r="B4429" s="1" t="s">
-        <v>4437</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="4430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4430" s="1" t="s">
-        <v>4438</v>
+        <v>4441</v>
       </c>
       <c r="B4430" s="1" t="s">
         <v>4439</v>
@@ -49427,147 +49998,841 @@
     </row>
     <row r="4431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4431" s="1" t="s">
-        <v>4440</v>
+        <v>3742</v>
       </c>
       <c r="B4431" s="1" t="s">
-        <v>4440</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4432" s="1" t="s">
-        <v>4441</v>
+        <v>4444</v>
       </c>
       <c r="B4432" s="1" t="s">
-        <v>4439</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4433" s="1" t="s">
-        <v>3742</v>
+        <v>4445</v>
       </c>
       <c r="B4433" s="1" t="s">
-        <v>4442</v>
-      </c>
-    </row>
-    <row r="4434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4434" s="1" t="s">
-        <v>4444</v>
+        <v>4452</v>
       </c>
       <c r="B4434" s="1" t="s">
-        <v>4444</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="4435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4435" s="1" t="s">
-        <v>4445</v>
+        <v>4453</v>
       </c>
       <c r="B4435" s="1" t="s">
-        <v>4446</v>
-      </c>
-    </row>
-    <row r="4436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4436" s="1" t="s">
-        <v>4452</v>
+        <v>4458</v>
       </c>
       <c r="B4436" s="1" t="s">
-        <v>4455</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4437" s="1" t="s">
-        <v>4453</v>
+        <v>4462</v>
       </c>
       <c r="B4437" s="1" t="s">
-        <v>4454</v>
-      </c>
-    </row>
-    <row r="4438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4438" s="1" t="s">
-        <v>4458</v>
+        <v>4467</v>
       </c>
       <c r="B4438" s="1" t="s">
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="4439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4439" s="1" t="s">
-        <v>4462</v>
+        <v>4469</v>
       </c>
       <c r="B4439" s="1" t="s">
-        <v>4461</v>
-      </c>
-    </row>
-    <row r="4440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4440" s="1" t="s">
-        <v>4467</v>
+        <v>4471</v>
       </c>
       <c r="B4440" s="1" t="s">
-        <v>4466</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="4441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4441" s="1" t="s">
-        <v>4469</v>
+        <v>4473</v>
       </c>
       <c r="B4441" s="1" t="s">
-        <v>4468</v>
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4442" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B4442" s="1" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4443" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B4443" s="1" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4444" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B4444" s="1" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4445" s="1" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B4445" s="1" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4446" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B4446" s="1" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4447" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B4447" s="1" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4448" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B4448" s="1" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4449" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B4449" s="1" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4450" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B4450" s="1" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4451" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B4451" s="1" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4452" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B4452" s="1" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4453" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B4453" s="1" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4454" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B4454" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4455" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B4455" s="1" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4456" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B4456" s="1" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4457" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B4457" s="1" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4458" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B4458" s="1" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4459" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B4459" s="1" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4460" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B4460" s="1" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4461" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B4461" s="1" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4462" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B4462" s="1" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4463" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B4463" s="1" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4464" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B4464" s="1" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4465" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B4465" s="1" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4466" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B4466" s="1" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4467" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B4467" s="1" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4468" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B4468" s="1" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4469" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B4469" s="1" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4470" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B4470" s="1" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4471" s="1" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B4471" s="1" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4472" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B4472" s="1" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4473" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B4473" s="1" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4474" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B4474" s="1" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4475" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4475" s="1" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4476" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B4476" s="1" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4477" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B4477" s="1" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4478" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B4478" s="1" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4479" s="1" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B4479" s="1" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4480" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B4480" s="1" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4481" s="1" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B4481" s="1" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4482" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B4482" s="1" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4483" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B4483" s="1" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4484" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B4484" s="1" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4485" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B4485" s="1" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4486" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B4486" s="1" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4487" s="1" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B4487" s="1" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4488" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B4488" s="1" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4489" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B4489" s="1" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4490" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B4490" s="1" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4491" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B4491" s="1" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4492" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B4492" s="1" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4493" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B4493" s="1" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4494" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B4494" s="1" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4495" s="1" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B4495" s="1" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4496" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B4496" s="1" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4497" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B4497" s="1" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4498" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B4498" s="1" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4499" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B4499" s="1" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4500" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B4500" s="1" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4501" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B4501" s="1" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4502" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B4502" s="1" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4503" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B4503" s="1" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4504" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B4504" s="1" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4505" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B4505" s="1" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4506" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B4506" s="1" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4507" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B4507" s="1" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4508" s="1" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B4508" s="1" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4509" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B4509" s="1" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4510" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B4510" s="1" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4511" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B4511" s="1" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4512" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B4512" s="1" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4513" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B4513" s="1" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4514" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B4514" s="1" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4515" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B4515" s="1" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4516" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B4516" s="1" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4517" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B4517" s="1" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4518" s="1" t="s">
+        <v>4630</v>
+      </c>
+      <c r="B4518" s="1" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4519" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B4519" s="1" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4520" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B4520" s="1" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4521" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B4521" s="1" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4522" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B4522" s="1" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4523" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B4523" s="1" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4524" s="1" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B4524" s="1" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4525" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B4525" s="1" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4526" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B4526" s="1" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4527" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B4527" s="1" t="s">
+        <v>4644</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="21" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="19" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3831 A3894:A4189 A6734:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="105"/>
+  <conditionalFormatting sqref="A6732:A1048576 A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3831 A3894:A4189">
+    <cfRule type="duplicateValues" dxfId="18" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="14" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3832:A3893">
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4412 A2044 A2035:B2043 A2034 A2045:B4411 A1:B2033 A4413:B1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  <conditionalFormatting sqref="A4410 A2044 A2035:B2043 A2034 A4411:B4460 A4461:A4462 A4463:B4499 B4500:B4503 A1:B2033 A2045:B4409 A4504:B1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3831 B3894:B4189 B6734:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+  <conditionalFormatting sqref="B6732:B1048576 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3831 B3894:B4189 B209:B1631">
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1810:B2033 B2045:B3339 B2035:B2043">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  <conditionalFormatting sqref="B1810:B2033 B2035:B2043 B2045:B3339">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3832:B3893">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3206">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1556">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FED248-0F5E-4A22-A015-59CF26DB1399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB720C-3731-48E2-9163-B207670E461F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9042" uniqueCount="4699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9046" uniqueCount="4703">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -14129,6 +14129,18 @@
   </si>
   <si>
     <t>Người hôn phối là người hiền hậu, nhẹ nhàng, đức độ, sống tình nghĩa, nhường nhịn, lâu bền với nhau, ít khi xảy ra mâu thuẫn. Khi có mâu thuẫn thì hạ cái tôi của mình xuống ngay, để giảng hòa. Hai vợ chồng tường đối xứng đôi vừa lứa với nhau, hay thích làm phước, hướng thiện.</t>
+  </si>
+  <si>
+    <t>Hôn nhân hạnh phúc, vợ chồng hòa thuận và thương yêu nhau, chịu đựng được nghịch cảnh mà lòng dạ sắt son, Tình nghĩa vợ chồng bền lâu, biết nhường nhịn nhau, ít khi cãi cọ, cưới nhau về rồi sống với nhau bằng tình nghĩa.</t>
+  </si>
+  <si>
+    <t>Vợ chồng yêu nhau trong một thời gian dài mới đến hôn nhân, vợ chồng xứng nứa vừa đôi, vợ chồng có ân tình, ân nghĩa với nhau, đây cũng là bộ sao hóa giải nghiệp của Vợ Chồng vì thế cho dù có xung khắc thế nào thì cuối cùng vợ chồng cũng ở với nhau đến già.</t>
+  </si>
+  <si>
+    <t>Người hôn phối là người thiện lương, ôn hòa, hay thích làm phúc, tu tập, mặt mũi thường phúc hậu. Bạn sẵn sàng chịu đựng khổ đau vất vả để đi cùng mình tới cuối đời.</t>
+  </si>
+  <si>
+    <t>Người hôn phối là người hay làm phúc, giúp đời, được nhiều Bạn kính mến, nể trọng. Có thể làm các ngành nghề liên quan tới thầy thuốc, bác sỹ, thầy giáo</t>
   </si>
 </sst>
 </file>
@@ -14349,21 +14361,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14744,10 +14756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B4521"/>
+  <dimension ref="A1:F4521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4449" workbookViewId="0">
-      <selection activeCell="A4525" sqref="A4525"/>
+    <sheetView tabSelected="1" topLeftCell="A2097" workbookViewId="0">
+      <selection activeCell="D2119" sqref="D2119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14779,7 +14791,7 @@
         <v>4622</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -32035,7 +32047,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="2161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2161" s="1" t="s">
         <v>2158</v>
       </c>
@@ -32043,7 +32055,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="2162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2162" s="1" t="s">
         <v>2159</v>
       </c>
@@ -32051,15 +32063,27 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="2163" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="2163" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2163" s="1" t="s">
         <v>2160</v>
       </c>
       <c r="B2163" s="1" t="s">
         <v>4659</v>
       </c>
-    </row>
-    <row r="2164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C2163" s="1" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D2163" s="1" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E2163" s="1" t="s">
+        <v>4701</v>
+      </c>
+      <c r="F2163" s="1" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2164" s="1" t="s">
         <v>2161</v>
       </c>
@@ -32067,7 +32091,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="2165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2165" s="1" t="s">
         <v>2140</v>
       </c>
@@ -32075,7 +32099,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="2166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2166" s="1" t="s">
         <v>2141</v>
       </c>
@@ -32083,7 +32107,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2167" s="1" t="s">
         <v>2142</v>
       </c>
@@ -32091,7 +32115,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="2168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2168" s="1" t="s">
         <v>2143</v>
       </c>
@@ -32099,7 +32123,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="2169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2169" s="1" t="s">
         <v>2144</v>
       </c>
@@ -32107,7 +32131,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="2170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2170" s="1" t="s">
         <v>2145</v>
       </c>
@@ -32115,7 +32139,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="2171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2171" s="1" t="s">
         <v>2146</v>
       </c>
@@ -32123,7 +32147,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="2172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2172" s="1" t="s">
         <v>2147</v>
       </c>
@@ -32131,7 +32155,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="2173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2173" s="1" t="s">
         <v>2148</v>
       </c>
@@ -32139,7 +32163,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="2174" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="2174" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A2174" s="1" t="s">
         <v>2149</v>
       </c>
@@ -32147,7 +32171,7 @@
         <v>4659</v>
       </c>
     </row>
-    <row r="2175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2175" s="1" t="s">
         <v>2150</v>
       </c>
@@ -32155,7 +32179,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="2176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2176" s="1" t="s">
         <v>2162</v>
       </c>
@@ -48547,7 +48571,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="4225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4225" s="1" t="s">
         <v>4211</v>
       </c>
@@ -50947,57 +50971,57 @@
   <conditionalFormatting sqref="A145:A208">
     <cfRule type="duplicateValues" dxfId="22" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6726:A1048576 A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3436:A3825 A3888:A4183">
-    <cfRule type="duplicateValues" dxfId="21" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="110"/>
+  <conditionalFormatting sqref="A1810:A3333">
+    <cfRule type="duplicateValues" dxfId="21" priority="399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3826:A3887">
-    <cfRule type="duplicateValues" dxfId="19" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4404 A2042 A2033:B2041 A2032 A4405:B4454 A4455:A4456 A4457:B4493 B4494:B4497 A4498:B1048576 A1:B2031 A2043:B4403">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6726:A1048576 A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3436:A3825 A3888:A4183">
+    <cfRule type="duplicateValues" dxfId="17" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6726:B1048576 B1:B23 B25:B84 B143 B1805:B1809 B3436:B3825 B3888:B4183 B209:B1631">
-    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+  <conditionalFormatting sqref="B1556">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3826:B3887">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="B2033:B2041 B1810:B2031 B2043:B3333">
+    <cfRule type="duplicateValues" dxfId="7" priority="395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3200">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1556">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2033:B2041 B1810:B2031 B2043:B3333">
-    <cfRule type="duplicateValues" dxfId="4" priority="395"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1810:A3333">
-    <cfRule type="duplicateValues" dxfId="3" priority="399"/>
+  <conditionalFormatting sqref="B3826:B3887">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3836">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4204">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6726:B1048576 B1:B23 B25:B84 B143 B1805:B1809 B3436:B3825 B3888:B4183 B209:B1631">
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuThe.xlsx
+++ b/LuanPhuThe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60396D87-F636-40BC-B725-7997D236F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA88129-5CF2-4036-AC0D-E4CC4E958E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6962" uniqueCount="3661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7034" uniqueCount="3720">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11015,6 +11015,183 @@
   </si>
   <si>
     <t>Người hôn phối là người hay làm phúc, giúp đời, được nhiều Bạn kính mến, nể trọng. Có thể làm các ngành nghề liên quan tới thầy thuốc, bác sỹ, thầy giáo</t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -11050,7 +11227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11058,11 +11235,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11260,6 +11440,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11629,10 +11819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:F3479"/>
+  <dimension ref="A1:G3493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2654" workbookViewId="0">
-      <selection activeCell="A2679" sqref="A2679"/>
+    <sheetView tabSelected="1" topLeftCell="A3492" workbookViewId="0">
+      <selection activeCell="B3493" sqref="B3493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11664,7 +11854,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -37108,7 +37298,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="3183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3183" s="1" t="s">
         <v>3169</v>
       </c>
@@ -39428,7 +39618,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="3473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3473" s="1" t="s">
         <v>3570</v>
       </c>
@@ -39436,7 +39626,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="3474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3474" s="1" t="s">
         <v>3571</v>
       </c>
@@ -39444,7 +39634,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="3475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3475" s="1" t="s">
         <v>3572</v>
       </c>
@@ -39452,7 +39642,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="3476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3476" s="1" t="s">
         <v>3573</v>
       </c>
@@ -39460,7 +39650,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="3477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3477" s="1" t="s">
         <v>3574</v>
       </c>
@@ -39468,7 +39658,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="3478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3478" s="1" t="s">
         <v>3575</v>
       </c>
@@ -39476,83 +39666,345 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="3479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3479" s="1" t="s">
         <v>3576</v>
       </c>
       <c r="B3479" s="1" t="s">
         <v>3578</v>
       </c>
+    </row>
+    <row r="3480" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3480" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B3480" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C3480" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="D3480" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="E3480" s="1"/>
+      <c r="F3480" s="3"/>
+    </row>
+    <row r="3481" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3481" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B3481" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C3481" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D3481" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="E3481" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="F3481" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3482" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B3482" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C3482" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D3482" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E3482" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F3482" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="G3482" s="1" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3483" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B3483" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C3483" s="1"/>
+      <c r="D3483" s="1"/>
+      <c r="E3483" s="1"/>
+      <c r="F3483" s="3"/>
+    </row>
+    <row r="3484" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3484" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B3484" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C3484" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D3484" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E3484" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="F3484" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="G3484" s="1" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3485" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B3485" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C3485" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D3485" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E3485" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="F3485" s="1" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3486" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B3486" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C3486" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D3486" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="E3486" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="F3486" s="1" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3487" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B3487" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C3487" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D3487" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E3487" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="F3487" s="1" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3488" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B3488" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C3488" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D3488" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="E3488" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="F3488" s="1"/>
+    </row>
+    <row r="3489" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3489" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B3489" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C3489" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D3489" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="E3489" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="F3489" s="1" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3490" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B3490" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C3490" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D3490" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="E3490" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F3490" s="1"/>
+      <c r="G3490" s="1"/>
+    </row>
+    <row r="3491" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3491" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B3491" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C3491" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D3491" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E3491" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F3491" s="1"/>
+      <c r="G3491" s="1"/>
+    </row>
+    <row r="3492" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3492" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B3492" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C3492" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D3492" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="E3492" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="F3492" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="G3492" s="1" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3493" s="1"/>
+      <c r="D3493" s="1"/>
+      <c r="E3493" s="1"/>
+      <c r="F3493" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B3479" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="28" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="26" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="24" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="22" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1810:A2664">
+    <cfRule type="duplicateValues" dxfId="22" priority="2504"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2784:A2845">
-    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3362 A2042 A2033:B2041 A2032 A3363:B3412 A3413:A3414 A3415:B3451 B3452:B3455 A3456:B1048576 A1:B2031 A2043:B3361">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+  <conditionalFormatting sqref="A3362 A2042 A2033:B2041 A2032 A3363:B3412 A3413:A3414 A3415:B3451 B3452:B3455 A3456:B3479 A1:B2031 A2043:B3361 A3494:B1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5684:A1048576 A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A2669:A2783 A2846:A3141">
-    <cfRule type="duplicateValues" dxfId="18" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1556">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2033:B2041 B1810:B2031 B2043:B2664">
+    <cfRule type="duplicateValues" dxfId="8" priority="2505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2654">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2784:B2845">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2794">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3162">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5684:B1048576 B1:B23 B25:B84 B143 B1805:B1809 B2669:B2783 B2846:B3141 B209:B1631">
-    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
     <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1810:A2664">
-    <cfRule type="duplicateValues" dxfId="1" priority="2503"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2033:B2041 B1810:B2031 B2043:B2664">
-    <cfRule type="duplicateValues" dxfId="0" priority="2504"/>
+  <conditionalFormatting sqref="A3480:B3493">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
